--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha5.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H2">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N2">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01411563002733333</v>
+        <v>0.08250467296044445</v>
       </c>
       <c r="R2">
-        <v>0.127040670246</v>
+        <v>0.742542056644</v>
       </c>
       <c r="S2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="T2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>3.174364</v>
       </c>
       <c r="I3">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J3">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N3">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2094142039084445</v>
+        <v>0.3222653130582223</v>
       </c>
       <c r="R3">
-        <v>1.884727835176</v>
+        <v>2.900387817524</v>
       </c>
       <c r="S3">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="T3">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.041014</v>
       </c>
       <c r="I4">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J4">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N4">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.06867615625288891</v>
+        <v>0.1056850136304445</v>
       </c>
       <c r="R4">
-        <v>0.6180854062760002</v>
+        <v>0.9511651226740001</v>
       </c>
       <c r="S4">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="T4">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
     </row>
   </sheetData>
